--- a/Planilha OK.xlsx
+++ b/Planilha OK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financeiro\GIT2\pyFundamentus-mainBKP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1405AEAF-90E5-4661-A338-BD524C09F894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0540D2-298C-4DEE-B91E-2AD7823FB5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B62E4789-1E44-4F55-B14A-CD6689D69A74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B62E4789-1E44-4F55-B14A-CD6689D69A74}"/>
   </bookViews>
   <sheets>
     <sheet name="wew2" sheetId="1" r:id="rId1"/>
@@ -2694,7 +2694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA43F0F6-F62D-4CB2-ABBE-3C0B890AE4A6}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3588,11 +3588,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCACDF1-9606-4C2B-9D36-A8FAC94DFE43}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
